--- a/Diccionario de datos/Diccionario de datos.xlsx
+++ b/Diccionario de datos/Diccionario de datos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\59399\Documents\Tesis\BD\diccionario de datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\59399\Documents\GitHub\DataMining_Accidentes_Transito_Canton_Loja\Diccionario de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F973B7FE-4A37-44AE-98F8-F7FD5B12AA30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B12D45-6040-4DA9-9945-513435D48966}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BA3A7D4B-3C18-4C81-BAAF-DC57C3503E33}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="165">
   <si>
     <t>Diccionario de datos</t>
   </si>
@@ -514,13 +514,43 @@
   </si>
   <si>
     <t>[INVENTARIO CRV VEHÍCULO 4 – SERVICIO VEHÍCULO 42]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fuente: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Unidad de Control Operativo de Tránsito – UCOT.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Elaborado: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Patricio Bolívar Benítez Lanche.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,6 +578,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -635,7 +672,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -649,6 +686,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -658,13 +701,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -676,11 +719,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -997,70 +1037,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47E0F6A-3DDB-4CD7-9CE0-D534B138A91C}">
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="56.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
     <col min="3" max="3" width="37.6640625" customWidth="1"/>
-    <col min="4" max="4" width="84.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1068,109 +1109,109 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1178,149 +1219,149 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="10"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="10"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="10"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="10"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="10"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="10"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="10"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="10"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="10"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="10"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="14" t="s">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="15"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
@@ -1328,339 +1369,339 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="10"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="10"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="10"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="10"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="10"/>
+      <c r="B37" s="6"/>
       <c r="C37" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="10"/>
+      <c r="B38" s="6"/>
       <c r="C38" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="10"/>
+      <c r="B39" s="6"/>
       <c r="C39" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="10"/>
+      <c r="B40" s="6"/>
       <c r="C40" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="10"/>
+      <c r="B41" s="6"/>
       <c r="C41" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="10"/>
+      <c r="B42" s="6"/>
       <c r="C42" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="10"/>
+      <c r="B43" s="6"/>
       <c r="C43" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="10"/>
+      <c r="B44" s="6"/>
       <c r="C44" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="10"/>
+      <c r="B45" s="6"/>
       <c r="C45" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8" t="s">
+    <row r="46" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="10"/>
+      <c r="B46" s="6"/>
       <c r="C46" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="10"/>
+      <c r="B47" s="6"/>
       <c r="C47" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="10"/>
+      <c r="B48" s="6"/>
       <c r="C48" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8" t="s">
+    <row r="49" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B49" s="10"/>
+      <c r="B49" s="6"/>
       <c r="C49" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="10"/>
+      <c r="B50" s="6"/>
       <c r="C50" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="10"/>
+      <c r="B51" s="6"/>
       <c r="C51" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B52" s="10"/>
+      <c r="B52" s="6"/>
       <c r="C52" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="8" t="s">
+    <row r="53" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="10"/>
+      <c r="B53" s="6"/>
       <c r="C53" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="8" t="s">
+    <row r="54" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="10"/>
+      <c r="B54" s="6"/>
       <c r="C54" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="8" t="s">
+    <row r="55" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="10"/>
+      <c r="B55" s="6"/>
       <c r="C55" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="8" t="s">
+    <row r="56" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="10"/>
+      <c r="B56" s="6"/>
       <c r="C56" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="8" t="s">
+    <row r="57" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="10"/>
+      <c r="B57" s="6"/>
       <c r="C57" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="8" t="s">
+    <row r="58" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="10"/>
+      <c r="B58" s="6"/>
       <c r="C58" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="8" t="s">
+    <row r="59" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="10"/>
+      <c r="B59" s="6"/>
       <c r="C59" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="8" t="s">
+    <row r="60" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B60" s="10"/>
+      <c r="B60" s="6"/>
       <c r="C60" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="8" t="s">
+    <row r="61" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B61" s="10"/>
+      <c r="B61" s="6"/>
       <c r="C61" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="8" t="s">
+    <row r="62" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="10"/>
+      <c r="B62" s="6"/>
       <c r="C62" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="8" t="s">
+    <row r="63" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B63" s="10"/>
+      <c r="B63" s="6"/>
       <c r="C63" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="8" t="s">
+    <row r="64" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B64" s="10"/>
+      <c r="B64" s="6"/>
       <c r="C64" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="7"/>
-    </row>
-    <row r="66" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="14" t="s">
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="9"/>
+    </row>
+    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="15"/>
+      <c r="B66" s="11"/>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
@@ -1668,658 +1709,766 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="8" t="s">
+    <row r="67" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B67" s="10"/>
+      <c r="B67" s="6"/>
       <c r="C67" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="8" t="s">
+    <row r="68" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B68" s="10"/>
+      <c r="B68" s="6"/>
       <c r="C68" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="8" t="s">
+    <row r="69" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B69" s="10"/>
+      <c r="B69" s="6"/>
       <c r="C69" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="8" t="s">
+    <row r="70" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B70" s="10"/>
+      <c r="B70" s="6"/>
       <c r="C70" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="8" t="s">
+    <row r="71" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B71" s="10"/>
+      <c r="B71" s="6"/>
       <c r="C71" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="8" t="s">
+    <row r="72" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B72" s="10"/>
+      <c r="B72" s="6"/>
       <c r="C72" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="8" t="s">
+    <row r="73" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B73" s="10"/>
+      <c r="B73" s="6"/>
       <c r="C73" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="8" t="s">
+    <row r="74" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B74" s="10"/>
+      <c r="B74" s="6"/>
       <c r="C74" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="8" t="s">
+    <row r="75" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B75" s="10"/>
+      <c r="B75" s="6"/>
       <c r="C75" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="8" t="s">
+    <row r="76" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B76" s="10"/>
+      <c r="B76" s="6"/>
       <c r="C76" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="8" t="s">
+    <row r="77" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B77" s="10"/>
+      <c r="B77" s="6"/>
       <c r="C77" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="8" t="s">
+    <row r="78" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B78" s="10"/>
+      <c r="B78" s="6"/>
       <c r="C78" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="8" t="s">
+    <row r="79" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B79" s="10"/>
+      <c r="B79" s="6"/>
       <c r="C79" s="3" t="s">
         <v>98</v>
       </c>
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="8" t="s">
+    <row r="80" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B80" s="10"/>
+      <c r="B80" s="6"/>
       <c r="C80" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D80" s="4"/>
     </row>
-    <row r="81" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="8" t="s">
+    <row r="81" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B81" s="10"/>
+      <c r="B81" s="6"/>
       <c r="C81" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D81" s="4"/>
     </row>
-    <row r="82" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="8" t="s">
+    <row r="82" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B82" s="10"/>
+      <c r="B82" s="6"/>
       <c r="C82" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="8" t="s">
+    <row r="83" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="10"/>
+      <c r="B83" s="6"/>
       <c r="C83" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="8" t="s">
+    <row r="84" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B84" s="10"/>
+      <c r="B84" s="6"/>
       <c r="C84" s="3" t="s">
         <v>103</v>
       </c>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="8" t="s">
+    <row r="85" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B85" s="10"/>
+      <c r="B85" s="6"/>
       <c r="C85" s="3" t="s">
         <v>105</v>
       </c>
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="8" t="s">
+    <row r="86" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B86" s="10"/>
+      <c r="B86" s="6"/>
       <c r="C86" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="8" t="s">
+    <row r="87" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B87" s="10"/>
+      <c r="B87" s="6"/>
       <c r="C87" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="8" t="s">
+    <row r="88" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B88" s="10"/>
+      <c r="B88" s="6"/>
       <c r="C88" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="8" t="s">
+    <row r="89" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B89" s="10"/>
+      <c r="B89" s="6"/>
       <c r="C89" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D89" s="4"/>
     </row>
-    <row r="90" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="8" t="s">
+    <row r="90" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B90" s="10"/>
+      <c r="B90" s="6"/>
       <c r="C90" s="3" t="s">
         <v>115</v>
       </c>
       <c r="D90" s="4"/>
     </row>
     <row r="91" spans="1:4" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B91" s="10"/>
+      <c r="B91" s="6"/>
       <c r="C91" s="3" t="s">
         <v>117</v>
       </c>
       <c r="D91" s="4"/>
     </row>
-    <row r="92" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="8" t="s">
+    <row r="92" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B92" s="10"/>
+      <c r="B92" s="6"/>
       <c r="C92" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D92" s="4"/>
     </row>
-    <row r="93" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="8" t="s">
+    <row r="93" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B93" s="10"/>
+      <c r="B93" s="6"/>
       <c r="C93" s="3" t="s">
         <v>120</v>
       </c>
       <c r="D93" s="4"/>
     </row>
-    <row r="94" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="8" t="s">
+    <row r="94" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B94" s="10"/>
+      <c r="B94" s="6"/>
       <c r="C94" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D94" s="4"/>
     </row>
-    <row r="95" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="8" t="s">
+    <row r="95" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B95" s="10"/>
+      <c r="B95" s="6"/>
       <c r="C95" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D95" s="4"/>
     </row>
-    <row r="96" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="8" t="s">
+    <row r="96" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B96" s="10"/>
+      <c r="B96" s="6"/>
       <c r="C96" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D96" s="4"/>
     </row>
-    <row r="97" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="8" t="s">
+    <row r="97" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B97" s="10"/>
+      <c r="B97" s="6"/>
       <c r="C97" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D97" s="4"/>
     </row>
-    <row r="98" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="8" t="s">
+    <row r="98" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B98" s="10"/>
+      <c r="B98" s="6"/>
       <c r="C98" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D98" s="4"/>
     </row>
-    <row r="99" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="8" t="s">
+    <row r="99" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B99" s="10"/>
+      <c r="B99" s="6"/>
       <c r="C99" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D99" s="4"/>
     </row>
-    <row r="100" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="8" t="s">
+    <row r="100" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B100" s="10"/>
+      <c r="B100" s="6"/>
       <c r="C100" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="8" t="s">
+    <row r="101" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B101" s="10"/>
+      <c r="B101" s="6"/>
       <c r="C101" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D101" s="4"/>
     </row>
-    <row r="102" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="8" t="s">
+    <row r="102" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B102" s="10"/>
+      <c r="B102" s="6"/>
       <c r="C102" s="3" t="s">
         <v>129</v>
       </c>
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="8" t="s">
+    <row r="103" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B103" s="10"/>
+      <c r="B103" s="6"/>
       <c r="C103" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D103" s="4"/>
     </row>
-    <row r="104" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="8" t="s">
+    <row r="104" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B104" s="10"/>
+      <c r="B104" s="6"/>
       <c r="C104" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="8" t="s">
+    <row r="105" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B105" s="10"/>
+      <c r="B105" s="6"/>
       <c r="C105" s="3" t="s">
         <v>133</v>
       </c>
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="8" t="s">
+    <row r="106" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B106" s="10"/>
+      <c r="B106" s="6"/>
       <c r="C106" s="3" t="s">
         <v>135</v>
       </c>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="8" t="s">
+    <row r="107" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B107" s="10"/>
+      <c r="B107" s="6"/>
       <c r="C107" s="3" t="s">
         <v>136</v>
       </c>
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="8" t="s">
+    <row r="108" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B108" s="10"/>
+      <c r="B108" s="6"/>
       <c r="C108" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="8" t="s">
+    <row r="109" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B109" s="10"/>
+      <c r="B109" s="6"/>
       <c r="C109" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="8" t="s">
+    <row r="110" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B110" s="10"/>
+      <c r="B110" s="6"/>
       <c r="C110" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D110" s="4"/>
     </row>
-    <row r="111" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="8" t="s">
+    <row r="111" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B111" s="10"/>
+      <c r="B111" s="6"/>
       <c r="C111" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D111" s="4"/>
     </row>
-    <row r="112" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="8" t="s">
+    <row r="112" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B112" s="10"/>
+      <c r="B112" s="6"/>
       <c r="C112" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D112" s="4"/>
     </row>
-    <row r="113" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="8" t="s">
+    <row r="113" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B113" s="10"/>
+      <c r="B113" s="6"/>
       <c r="C113" s="3" t="s">
         <v>138</v>
       </c>
       <c r="D113" s="4"/>
     </row>
-    <row r="114" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="8" t="s">
+    <row r="114" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B114" s="10"/>
+      <c r="B114" s="6"/>
       <c r="C114" s="3" t="s">
         <v>140</v>
       </c>
       <c r="D114" s="4"/>
     </row>
-    <row r="115" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="8" t="s">
+    <row r="115" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B115" s="10"/>
+      <c r="B115" s="6"/>
       <c r="C115" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="8" t="s">
+    <row r="116" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B116" s="10"/>
+      <c r="B116" s="6"/>
       <c r="C116" s="3" t="s">
         <v>144</v>
       </c>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="8" t="s">
+    <row r="117" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B117" s="10"/>
+      <c r="B117" s="6"/>
       <c r="C117" s="3" t="s">
         <v>146</v>
       </c>
       <c r="D117" s="4"/>
     </row>
-    <row r="118" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="8" t="s">
+    <row r="118" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B118" s="10"/>
+      <c r="B118" s="6"/>
       <c r="C118" s="3" t="s">
         <v>148</v>
       </c>
       <c r="D118" s="4"/>
     </row>
-    <row r="119" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="8" t="s">
+    <row r="119" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B119" s="10"/>
+      <c r="B119" s="6"/>
       <c r="C119" s="3" t="s">
         <v>150</v>
       </c>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="8" t="s">
+    <row r="120" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B120" s="10"/>
+      <c r="B120" s="6"/>
       <c r="C120" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D120" s="4"/>
     </row>
-    <row r="121" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="8" t="s">
+    <row r="121" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B121" s="10"/>
+      <c r="B121" s="6"/>
       <c r="C121" s="3" t="s">
         <v>153</v>
       </c>
       <c r="D121" s="4"/>
     </row>
-    <row r="122" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="8" t="s">
+    <row r="122" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B122" s="10"/>
+      <c r="B122" s="6"/>
       <c r="C122" s="3" t="s">
         <v>146</v>
       </c>
       <c r="D122" s="4"/>
     </row>
-    <row r="123" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="8" t="s">
+    <row r="123" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B123" s="10"/>
+      <c r="B123" s="6"/>
       <c r="C123" s="3" t="s">
         <v>148</v>
       </c>
       <c r="D123" s="4"/>
     </row>
-    <row r="124" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="8" t="s">
+    <row r="124" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B124" s="10"/>
+      <c r="B124" s="6"/>
       <c r="C124" s="3" t="s">
         <v>150</v>
       </c>
       <c r="D124" s="4"/>
     </row>
-    <row r="125" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="8" t="s">
+    <row r="125" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B125" s="10"/>
+      <c r="B125" s="6"/>
       <c r="C125" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D125" s="4"/>
     </row>
-    <row r="126" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="8" t="s">
+    <row r="126" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B126" s="10"/>
+      <c r="B126" s="6"/>
       <c r="C126" s="3" t="s">
         <v>144</v>
       </c>
       <c r="D126" s="4"/>
     </row>
-    <row r="127" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="8" t="s">
+    <row r="127" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B127" s="10"/>
+      <c r="B127" s="6"/>
       <c r="C127" s="3" t="s">
         <v>146</v>
       </c>
       <c r="D127" s="4"/>
     </row>
-    <row r="128" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="8" t="s">
+    <row r="128" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B128" s="10"/>
+      <c r="B128" s="6"/>
       <c r="C128" s="3" t="s">
         <v>148</v>
       </c>
       <c r="D128" s="4"/>
     </row>
-    <row r="129" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="8" t="s">
+    <row r="129" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B129" s="10"/>
+      <c r="B129" s="6"/>
       <c r="C129" s="3" t="s">
         <v>150</v>
       </c>
       <c r="D129" s="4"/>
     </row>
-    <row r="130" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="8" t="s">
+    <row r="130" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B130" s="10"/>
+      <c r="B130" s="6"/>
       <c r="C130" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D130" s="4"/>
     </row>
+    <row r="132" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A132" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A133" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
     <mergeCell ref="A115:B115"/>
     <mergeCell ref="A116:B116"/>
     <mergeCell ref="A117:B117"/>
@@ -2332,114 +2481,16 @@
     <mergeCell ref="A112:B112"/>
     <mergeCell ref="A113:B113"/>
     <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" display="https://github.com/Orixstranger/DataMining_Accidentes_Transito_Canton_Loja/blob/main/Base de datos/Base de datos inicial tr%C3%A1nsito UCOT.xlsx" xr:uid="{D40F3452-10B9-4C74-A151-454FD798F397}"/>
